--- a/Excel-2013/Excel Unit A/EX A-Trip Advisor Payroll Calculator 10.xlsx
+++ b/Excel-2013/Excel Unit A/EX A-Trip Advisor Payroll Calculator 10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\Github_MS_Office_2013\microsoftOffice2013\Excel-2013\Excel Unit A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22838697-F55F-412A-AA71-20ABFF114DE5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C36CE5-52C4-49EC-B319-41F16AC6F064}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,7 +508,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,8 +576,12 @@
         <v>660</v>
       </c>
       <c r="F5">
-        <f>C5*(2*D5)</f>
-        <v>132</v>
+        <f>C5*(2.5*D5)</f>
+        <v>165</v>
+      </c>
+      <c r="G5">
+        <f>E5+F5</f>
+        <v>825</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -800,11 +804,11 @@
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>468</v>
+        <v>501</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>825</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
